--- a/inst/shiny-examples/ContDataQC/rmd/Files_From_Jen/2a_OrganizingFiles_v1_20210617/2a_Table_Organize_v1_20210617.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/Files_From_Jen/2a_OrganizingFiles_v1_20210617/2a_Table_Organize_v1_20210617.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RedLake\webinar_training_series\TrainingModules\ContDataQC_updates\2_DataPrep\2a_OrganizingFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/ContDataQC/inst/shiny-examples/ContDataQC/rmd/Files_From_Jen/2a_OrganizingFiles_v1_20210617/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A1402-6B8E-45BB-868A-833EE061EE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1ED5D8F2-5B0B-4C3D-9CBF-B5D2FA41D1F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1ED5D8F2-5B0B-4C3D-9CBF-B5D2FA41D1F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,22 +571,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBACC95-95C4-4C7B-AB2B-D185614107B2}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="93.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="93.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -634,7 +634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -642,7 +642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -650,7 +650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -659,7 +659,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -667,7 +667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -675,7 +675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -683,7 +683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -691,7 +691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -699,10 +699,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
   </sheetData>
